--- a/biology/Zoologie/Hypothyris_cantobrica/Hypothyris_cantobrica.xlsx
+++ b/biology/Zoologie/Hypothyris_cantobrica/Hypothyris_cantobrica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypothyris cantobrica est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Hypothyris.
 </t>
@@ -511,49 +523,122 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypothyris cantobrica a été décrit par William Chapman Hewitson en 1876 sous le nom initial d' Ithonia cantobrica[1].
-Synonyme : Rhodussa cantobrica[2].
-Sous-espèces
-Hypothyris cantobrica cantobrica; présent en Bolivie et au Pérou.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypothyris cantobrica a été décrit par William Chapman Hewitson en 1876 sous le nom initial d' Ithonia cantobrica.
+Synonyme : Rhodussa cantobrica.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hypothyris_cantobrica</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypothyris_cantobrica</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hypothyris cantobrica cantobrica; présent en Bolivie et au Pérou.
 Hypothyris cantobrica carvalhoi (d'Almeida, 1954); présent au Brésil
 Hypothyris cantobrica nundina (d'Almeida, 1945); présent au Brésil
 Hypothyris cantobrica schunkeae (Lamas, 1979); présent au Pérou.
 Hypothyris cantobrica ssp; présent au Brésil
 Hypothyris cantobrica ssp; présent au Brésil
-Hypothyris cantobrica ssp; présent au Brésil[1].
-Nom vernaculaire
-Hypothyris  cantobrica se nomme Cantobrica Tigerwing ou Cantobrica Tigerwing en anglais[3],[2].
+Hypothyris cantobrica ssp; présent au Brésil.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hypothyris_cantobrica</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypothyris_cantobrica</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypothyris  cantobrica se nomme Cantobrica Tigerwing ou Cantobrica Tigerwing en anglais,.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hypothyris_cantobrica</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hypothyris_cantobrica</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hypothyris_cantobrica</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypothyris_cantobrica</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypothyris  cantobrica est un papillon à corps fin, aux ailes ailes à apex arrondi et aux ailes antérieures à bord interne concave. Les ailes antérieures sont orange tachées de marron avec une plage dentelée transparente proche de l'apex et au bord externe une ligne submarginale de points blancs dans une bordure marron.  Les ailes postérieures sont orange, marquées d'une barre dentelée marron et au bord externe bordé de marron avec une ligne submarginale de points blancs  dans cette bordure marron
 Le revers est semblable.
@@ -561,68 +646,142 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hypothyris_cantobrica</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hypothyris_cantobrica</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hypothyris_cantobrica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypothyris_cantobrica</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa biologie est mal connue[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa biologie est mal connue.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Hypothyris_cantobrica</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hypothyris_cantobrica</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hypothyris_cantobrica</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypothyris_cantobrica</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypothyris cantobrica est présent  en Bolivie, au Brésil et au Pérou[1].
-Biotope
-Hypothyris cantobrica réside dans la forêt tropicale humide[2].
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypothyris cantobrica est présent  en Bolivie, au Brésil et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hypothyris_cantobrica</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypothyris_cantobrica</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypothyris cantobrica réside dans la forêt tropicale humide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hypothyris_cantobrica</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypothyris_cantobrica</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Hypothyris cantobrica, sur Wikimedia CommonsHypothyris cantobrica, sur Wikispecies
 </t>
